--- a/data/trans_bre/P57B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3094204237268428</v>
+        <v>0.006714759045009605</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.02013142099307446</v>
+        <v>-0.000326353017041232</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.351407522847387</v>
+        <v>6.348267136598359</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.5065988904461339</v>
+        <v>0.4950720679333406</v>
       </c>
     </row>
     <row r="7">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6.261886476561136</v>
+        <v>6.261886476561138</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.6364836977289787</v>
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.599147184254373</v>
+        <v>3.620530841604529</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2936426550312503</v>
+        <v>0.3065405113128431</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.173649892319576</v>
+        <v>9.04192896068362</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.059552515616429</v>
+        <v>1.053474078428046</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.995080972359904</v>
+        <v>2.995080972359903</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.5323142431022022</v>
+        <v>0.532314243102202</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3470166718633062</v>
+        <v>0.5577211575339368</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.04550263652272328</v>
+        <v>0.07984417155513372</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.657617331804342</v>
+        <v>5.436471997896245</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.291739130656792</v>
+        <v>1.311165074469766</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>4.676876977416573</v>
+        <v>4.676876977416579</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4156450968405224</v>
+        <v>0.415645096840523</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.025345374592468</v>
+        <v>1.899196135733773</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1539021920414637</v>
+        <v>0.1561464404515958</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.630539294464467</v>
+        <v>7.278519860668375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7991256792106907</v>
+        <v>0.7446548259315163</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.536064542895161</v>
+        <v>4.536064542895158</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.4439695531382528</v>
+        <v>0.4439695531382525</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.198209348367223</v>
+        <v>3.156127406571264</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2890845516015</v>
+        <v>0.2822112365705701</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.947306844195406</v>
+        <v>5.936527735528781</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6295241746117115</v>
+        <v>0.6268988555206939</v>
       </c>
     </row>
     <row r="19">
